--- a/Week 3/SE1606_SWP391_OnlineShop_Backlog_W3.xlsx
+++ b/Week 3/SE1606_SWP391_OnlineShop_Backlog_W3.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anhvo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FPTU\Ky5\SWP391\Week 3\SWP391\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{153B5904-65A8-4AC8-A9A7-C59B41A06ADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="RoC" sheetId="4" r:id="rId1"/>
@@ -21,32 +20,24 @@
     <sheet name="Iteration 4" sheetId="10" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Iteration 1'!$A$8:$F$15</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Iteration 2'!$A$8:$F$16</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Iteration 3'!$A$8:$F$23</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Iteration 4'!$A$8:$F$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Iteration 1'!$A$8:$F$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Iteration 2'!$A$8:$F$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Iteration 3'!$A$8:$F$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Iteration 4'!$A$8:$F$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Product!$A$8:$G$44</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RoC!$A$3:$C$10</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="180">
   <si>
     <t>THE APPLICATION DEVELOPMENT PROJECT TOPIC</t>
   </si>
@@ -655,11 +646,14 @@
   <si>
     <t>Doing</t>
   </si>
+  <si>
+    <t>HungNMHE1512110</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -728,6 +722,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -740,6 +735,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -792,7 +788,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -823,8 +819,14 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -845,6 +847,89 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -894,8 +979,26 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -917,6 +1020,9 @@
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="17" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -928,58 +1034,39 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="17" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 5" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 5" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1685,7 +1772,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
@@ -1696,25 +1783,25 @@
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" customWidth="1"/>
-    <col min="4" max="4" width="71.6640625" customWidth="1"/>
-    <col min="5" max="225" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="71.7109375" customWidth="1"/>
+    <col min="5" max="225" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -1728,7 +1815,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <f>ROW()-3</f>
         <v>1</v>
@@ -1737,7 +1824,7 @@
       <c r="C4" s="6"/>
       <c r="D4" s="12"/>
     </row>
-    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <f t="shared" ref="A5:A10" si="0">ROW()-3</f>
         <v>2</v>
@@ -1746,7 +1833,7 @@
       <c r="C5" s="6"/>
       <c r="D5" s="12"/>
     </row>
-    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1755,7 +1842,7 @@
       <c r="C6" s="6"/>
       <c r="D6" s="12"/>
     </row>
-    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1764,7 +1851,7 @@
       <c r="C7" s="6"/>
       <c r="D7" s="12"/>
     </row>
-    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1773,7 +1860,7 @@
       <c r="C8" s="6"/>
       <c r="D8" s="12"/>
     </row>
-    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1782,7 +1869,7 @@
       <c r="C9" s="6"/>
       <c r="D9" s="12"/>
     </row>
-    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1792,65 +1879,65 @@
       <c r="D10" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:C10" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A3:C10"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <pane ySplit="8" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="113.88671875" customWidth="1"/>
-    <col min="7" max="7" width="11.77734375" customWidth="1"/>
-    <col min="8" max="229" width="8.6640625" customWidth="1"/>
+    <col min="6" max="6" width="113.85546875" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="229" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="D5" s="10" t="s">
         <v>0</v>
       </c>
       <c r="E5" s="10"/>
     </row>
-    <row r="6" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="D6" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="13"/>
     </row>
-    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -1873,1095 +1960,1095 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="105" x14ac:dyDescent="0.3">
-      <c r="A9" s="15" t="s">
+    <row r="9" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="30">
+      <c r="E9" s="20">
         <f>IF(D9="Complex", 240, IF(D9="Medium",120,60))</f>
         <v>240</v>
       </c>
-      <c r="F9" s="29" t="s">
+      <c r="F9" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="G9" s="31" t="s">
+      <c r="G9" s="21" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.3">
-      <c r="A10" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="29" t="s">
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E10" s="30">
+      <c r="E10" s="20">
         <f t="shared" ref="E10:E53" si="0">IF(D10="Complex", 240, IF(D10="Medium",120,60))</f>
         <v>60</v>
       </c>
-      <c r="F10" s="29" t="s">
+      <c r="F10" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="G10" s="31" t="s">
+      <c r="G10" s="21" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.3">
-      <c r="A11" s="15" t="s">
+    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="30">
+      <c r="E11" s="20">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F11" s="29" t="s">
+      <c r="F11" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="G11" s="31" t="s">
+      <c r="G11" s="21" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="75" x14ac:dyDescent="0.3">
-      <c r="A12" s="15" t="s">
+    <row r="12" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="30">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F12" s="29" t="s">
+      <c r="E12" s="20">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F12" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="G12" s="31" t="s">
+      <c r="G12" s="21" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.3">
-      <c r="A13" s="15" t="s">
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="30">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F13" s="29" t="s">
+      <c r="E13" s="20">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F13" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="G13" s="31" t="s">
+      <c r="G13" s="21" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.3">
-      <c r="A14" s="15" t="s">
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="C14" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="D14" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="30">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F14" s="29" t="s">
+      <c r="E14" s="20">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F14" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="G14" s="31" t="s">
+      <c r="G14" s="21" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.3">
-      <c r="A15" s="15" t="s">
+    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="29" t="s">
+      <c r="D15" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E15" s="30">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F15" s="29" t="s">
+      <c r="E15" s="20">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F15" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="G15" s="31" t="s">
+      <c r="G15" s="21" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="15" t="s">
+    <row r="16" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="30">
+      <c r="E16" s="20">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F16" s="29" t="s">
+      <c r="F16" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="G16" s="31" t="s">
+      <c r="G16" s="21" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="135" x14ac:dyDescent="0.3">
-      <c r="A17" s="15" t="s">
+    <row r="17" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="33" t="s">
+      <c r="C17" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="D17" s="29" t="s">
+      <c r="D17" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="30">
+      <c r="E17" s="20">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
-      <c r="F17" s="29" t="s">
+      <c r="F17" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="G17" s="31" t="s">
+      <c r="G17" s="21" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="15" t="s">
+    <row r="18" spans="1:7" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="33" t="s">
+      <c r="C18" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="29" t="s">
+      <c r="D18" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E18" s="30">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F18" s="29" t="s">
+      <c r="E18" s="20">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F18" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="G18" s="31" t="s">
+      <c r="G18" s="21" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="90" x14ac:dyDescent="0.3">
-      <c r="A19" s="15" t="s">
+    <row r="19" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="29" t="s">
+      <c r="D19" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E19" s="30">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F19" s="29" t="s">
+      <c r="E19" s="20">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F19" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="G19" s="31" t="s">
+      <c r="G19" s="21" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.3">
-      <c r="A20" s="15" t="s">
+    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="29" t="s">
+      <c r="D20" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E20" s="30">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F20" s="29" t="s">
+      <c r="E20" s="20">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F20" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="G20" s="31" t="s">
+      <c r="G20" s="21" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.3">
-      <c r="A21" s="15" t="s">
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="33" t="s">
+      <c r="C21" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="29" t="s">
+      <c r="D21" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="30">
+      <c r="E21" s="20">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
-      <c r="F21" s="29" t="s">
+      <c r="F21" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="G21" s="31" t="s">
+      <c r="G21" s="21" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.3">
-      <c r="A22" s="15" t="s">
+    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="33" t="s">
+      <c r="C22" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="29" t="s">
+      <c r="D22" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E22" s="30">
+      <c r="E22" s="20">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F22" s="29" t="s">
+      <c r="F22" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="G22" s="31" t="s">
+      <c r="G22" s="21" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.3">
-      <c r="A23" s="15" t="s">
+    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="33" t="s">
+      <c r="C23" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="29" t="s">
+      <c r="D23" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="30">
+      <c r="E23" s="20">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
-      <c r="F23" s="29" t="s">
+      <c r="F23" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="G23" s="31" t="s">
+      <c r="G23" s="21" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="90" x14ac:dyDescent="0.3">
-      <c r="A24" s="15" t="s">
+    <row r="24" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A24" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="33" t="s">
+      <c r="C24" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="29" t="s">
+      <c r="D24" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E24" s="30">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F24" s="29" t="s">
+      <c r="E24" s="20">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F24" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="G24" s="31" t="s">
+      <c r="G24" s="21" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.3">
-      <c r="A25" s="15" t="s">
+    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="33" t="s">
+      <c r="C25" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="29" t="s">
+      <c r="D25" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E25" s="30">
+      <c r="E25" s="20">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F25" s="29" t="s">
+      <c r="F25" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="G25" s="31" t="s">
+      <c r="G25" s="21" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.3">
-      <c r="A26" s="15" t="s">
+    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="33" t="s">
+      <c r="C26" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="D26" s="29" t="s">
+      <c r="D26" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E26" s="30">
+      <c r="E26" s="20">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F26" s="29" t="s">
+      <c r="F26" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="G26" s="31" t="s">
+      <c r="G26" s="21" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="75" x14ac:dyDescent="0.3">
-      <c r="A27" s="15" t="s">
+    <row r="27" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A27" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="B27" s="29" t="s">
+      <c r="B27" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="33" t="s">
+      <c r="C27" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="D27" s="29" t="s">
+      <c r="D27" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E27" s="30">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F27" s="29" t="s">
+      <c r="E27" s="20">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F27" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="G27" s="31" t="s">
+      <c r="G27" s="21" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="60" x14ac:dyDescent="0.3">
-      <c r="A28" s="15" t="s">
+    <row r="28" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="29" t="s">
+      <c r="C28" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="29" t="s">
+      <c r="D28" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E28" s="30">
+      <c r="E28" s="20">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F28" s="29" t="s">
+      <c r="F28" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="G28" s="31" t="s">
+      <c r="G28" s="21" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.3">
-      <c r="A29" s="15" t="s">
+    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="29" t="s">
+      <c r="C29" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="29" t="s">
+      <c r="D29" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E29" s="30">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F29" s="29" t="s">
+      <c r="E29" s="20">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F29" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="G29" s="31" t="s">
+      <c r="G29" s="21" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.3">
-      <c r="A30" s="15" t="s">
+    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="B30" s="29" t="s">
+      <c r="B30" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="33" t="s">
+      <c r="C30" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="29" t="s">
+      <c r="D30" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E30" s="30">
+      <c r="E30" s="20">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F30" s="29" t="s">
+      <c r="F30" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="G30" s="31" t="s">
+      <c r="G30" s="21" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.3">
-      <c r="A31" s="15" t="s">
+    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="B31" s="29" t="s">
+      <c r="B31" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="33" t="s">
+      <c r="C31" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="29" t="s">
+      <c r="D31" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="30">
+      <c r="E31" s="20">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
-      <c r="F31" s="29" t="s">
+      <c r="F31" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="G31" s="31" t="s">
+      <c r="G31" s="21" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="105" x14ac:dyDescent="0.3">
-      <c r="A32" s="15" t="s">
+    <row r="32" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A32" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="B32" s="29" t="s">
+      <c r="B32" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="33" t="s">
+      <c r="C32" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="29" t="s">
+      <c r="D32" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="30">
+      <c r="E32" s="20">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
-      <c r="F32" s="29" t="s">
+      <c r="F32" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="G32" s="31" t="s">
+      <c r="G32" s="21" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="120" x14ac:dyDescent="0.3">
-      <c r="A33" s="15" t="s">
+    <row r="33" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A33" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="B33" s="29" t="s">
+      <c r="B33" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C33" s="33" t="s">
+      <c r="C33" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D33" s="29" t="s">
+      <c r="D33" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E33" s="30">
+      <c r="E33" s="20">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
-      <c r="F33" s="29" t="s">
+      <c r="F33" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="G33" s="31" t="s">
+      <c r="G33" s="21" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.3">
-      <c r="A34" s="15" t="s">
+    <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="B34" s="29" t="s">
+      <c r="B34" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C34" s="33" t="s">
+      <c r="C34" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="D34" s="29" t="s">
+      <c r="D34" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E34" s="30">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F34" s="29" t="s">
+      <c r="E34" s="20">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F34" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="G34" s="31" t="s">
+      <c r="G34" s="21" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="90" x14ac:dyDescent="0.3">
-      <c r="A35" s="15" t="s">
+    <row r="35" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A35" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="B35" s="29" t="s">
+      <c r="B35" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C35" s="33" t="s">
+      <c r="C35" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="D35" s="29" t="s">
+      <c r="D35" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E35" s="30">
+      <c r="E35" s="20">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F35" s="29" t="s">
+      <c r="F35" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="G35" s="31" t="s">
+      <c r="G35" s="21" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="60" x14ac:dyDescent="0.3">
-      <c r="A36" s="15" t="s">
+    <row r="36" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A36" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="B36" s="29" t="s">
+      <c r="B36" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C36" s="33" t="s">
+      <c r="C36" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="D36" s="29" t="s">
+      <c r="D36" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E36" s="30">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F36" s="29" t="s">
+      <c r="E36" s="20">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F36" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="G36" s="31" t="s">
+      <c r="G36" s="21" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="90" x14ac:dyDescent="0.3">
-      <c r="A37" s="15" t="s">
+    <row r="37" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A37" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="29" t="s">
+      <c r="B37" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C37" s="33" t="s">
+      <c r="C37" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="D37" s="29" t="s">
+      <c r="D37" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E37" s="30">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F37" s="29" t="s">
+      <c r="E37" s="20">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F37" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="G37" s="31" t="s">
+      <c r="G37" s="21" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.3">
-      <c r="A38" s="15" t="s">
+    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="B38" s="29" t="s">
+      <c r="B38" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C38" s="33" t="s">
+      <c r="C38" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="D38" s="29" t="s">
+      <c r="D38" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E38" s="30">
+      <c r="E38" s="20">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F38" s="29" t="s">
+      <c r="F38" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="G38" s="31" t="s">
+      <c r="G38" s="21" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="90" x14ac:dyDescent="0.3">
-      <c r="A39" s="15" t="s">
+    <row r="39" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A39" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="B39" s="29" t="s">
+      <c r="B39" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="33" t="s">
+      <c r="C39" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D39" s="29" t="s">
+      <c r="D39" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E39" s="30">
+      <c r="E39" s="20">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F39" s="34" t="s">
+      <c r="F39" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="G39" s="31" t="s">
+      <c r="G39" s="21" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.3">
-      <c r="A40" s="15" t="s">
+    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="B40" s="29" t="s">
+      <c r="B40" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C40" s="29" t="s">
+      <c r="C40" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D40" s="29" t="s">
+      <c r="D40" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E40" s="30">
+      <c r="E40" s="20">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F40" s="29" t="s">
+      <c r="F40" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="G40" s="31" t="s">
+      <c r="G40" s="21" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="135" x14ac:dyDescent="0.3">
-      <c r="A41" s="15" t="s">
+    <row r="41" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A41" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="B41" s="29" t="s">
+      <c r="B41" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C41" s="33" t="s">
+      <c r="C41" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D41" s="29" t="s">
+      <c r="D41" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E41" s="30">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F41" s="29" t="s">
+      <c r="E41" s="20">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F41" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="G41" s="31" t="s">
+      <c r="G41" s="21" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="105" x14ac:dyDescent="0.3">
-      <c r="A42" s="15" t="s">
+    <row r="42" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A42" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="B42" s="29" t="s">
+      <c r="B42" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C42" s="29" t="s">
+      <c r="C42" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D42" s="29" t="s">
+      <c r="D42" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E42" s="30">
+      <c r="E42" s="20">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F42" s="29" t="s">
+      <c r="F42" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="G42" s="31" t="s">
+      <c r="G42" s="21" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="165" x14ac:dyDescent="0.3">
-      <c r="A43" s="15" t="s">
+    <row r="43" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="A43" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="B43" s="29" t="s">
+      <c r="B43" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C43" s="29" t="s">
+      <c r="C43" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D43" s="29" t="s">
+      <c r="D43" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E43" s="30">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F43" s="29" t="s">
+      <c r="E43" s="20">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F43" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="G43" s="31" t="s">
+      <c r="G43" s="21" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="105" x14ac:dyDescent="0.3">
-      <c r="A44" s="15" t="s">
+    <row r="44" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A44" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="B44" s="29" t="s">
+      <c r="B44" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C44" s="29" t="s">
+      <c r="C44" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D44" s="29" t="s">
+      <c r="D44" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="E44" s="30">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F44" s="29" t="s">
+      <c r="E44" s="20">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F44" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="G44" s="31" t="s">
+      <c r="G44" s="21" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A45" s="15" t="s">
+    <row r="45" spans="1:7" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="B45" s="35" t="s">
+      <c r="B45" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="C45" s="35" t="s">
+      <c r="C45" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="D45" s="35" t="s">
+      <c r="D45" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="E45" s="30">
+      <c r="E45" s="20">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F45" s="36" t="s">
+      <c r="F45" s="40" t="s">
         <v>160</v>
       </c>
-      <c r="G45" s="45" t="s">
+      <c r="G45" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="15" t="s">
+    <row r="46" spans="1:7" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="B46" s="35" t="s">
+      <c r="B46" s="38" t="s">
         <v>147</v>
       </c>
-      <c r="C46" s="35" t="s">
+      <c r="C46" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="D46" s="35" t="s">
+      <c r="D46" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="E46" s="30">
+      <c r="E46" s="20">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F46" s="36" t="s">
+      <c r="F46" s="40" t="s">
         <v>161</v>
       </c>
-      <c r="G46" s="45" t="s">
+      <c r="G46" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.3">
-      <c r="A47" s="15" t="s">
+    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="B47" s="37" t="s">
+      <c r="B47" s="43" t="s">
         <v>150</v>
       </c>
-      <c r="C47" s="37" t="s">
+      <c r="C47" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="D47" s="37" t="s">
+      <c r="D47" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="E47" s="30">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F47" s="37" t="s">
+      <c r="E47" s="20">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F47" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="G47" s="45" t="s">
+      <c r="G47" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.3">
-      <c r="A48" s="15" t="s">
+    <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="B48" s="35" t="s">
+      <c r="B48" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="C48" s="35" t="s">
+      <c r="C48" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="D48" s="35" t="s">
+      <c r="D48" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="E48" s="30">
+      <c r="E48" s="20">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F48" s="37" t="s">
+      <c r="F48" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="G48" s="45" t="s">
+      <c r="G48" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A49" s="15" t="s">
+    <row r="49" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="B49" s="35" t="s">
+      <c r="B49" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="C49" s="35" t="s">
+      <c r="C49" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="D49" s="35" t="s">
+      <c r="D49" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="E49" s="30">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F49" s="38" t="s">
+      <c r="E49" s="20">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F49" s="41" t="s">
         <v>164</v>
       </c>
-      <c r="G49" s="45" t="s">
+      <c r="G49" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A50" s="15" t="s">
+    <row r="50" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="B50" s="37" t="s">
+      <c r="B50" s="43" t="s">
         <v>169</v>
       </c>
-      <c r="C50" s="37" t="s">
+      <c r="C50" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="D50" s="37" t="s">
+      <c r="D50" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="E50" s="30">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F50" s="38" t="s">
+      <c r="E50" s="20">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F50" s="41" t="s">
         <v>170</v>
       </c>
-      <c r="G50" s="45" t="s">
+      <c r="G50" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="15" t="s">
+    <row r="51" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="B51" s="35" t="s">
+      <c r="B51" s="38" t="s">
         <v>148</v>
       </c>
-      <c r="C51" s="35" t="s">
+      <c r="C51" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="D51" s="35" t="s">
+      <c r="D51" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="E51" s="30">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F51" s="38" t="s">
+      <c r="E51" s="20">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F51" s="41" t="s">
         <v>165</v>
       </c>
-      <c r="G51" s="45" t="s">
+      <c r="G51" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A52" s="15" t="s">
+    <row r="52" spans="1:7" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="B52" s="35" t="s">
+      <c r="B52" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="C52" s="35" t="s">
+      <c r="C52" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="D52" s="35" t="s">
+      <c r="D52" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="E52" s="30">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F52" s="36" t="s">
+      <c r="E52" s="20">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F52" s="40" t="s">
         <v>167</v>
       </c>
-      <c r="G52" s="45" t="s">
+      <c r="G52" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="45.6" x14ac:dyDescent="0.3">
-      <c r="A53" s="15" t="s">
+    <row r="53" spans="1:7" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="B53" s="37" t="s">
+      <c r="B53" s="43" t="s">
         <v>166</v>
       </c>
-      <c r="C53" s="35" t="s">
+      <c r="C53" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="D53" s="35" t="s">
+      <c r="D53" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="E53" s="30">
+      <c r="E53" s="20">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F53" s="36" t="s">
+      <c r="F53" s="40" t="s">
         <v>168</v>
       </c>
-      <c r="G53" s="45" t="s">
+      <c r="G53" t="s">
         <v>137</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A8:G44" xr:uid="{00000000-0009-0000-0000-000001000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:G44">
+  <autoFilter ref="A8:G44">
+    <sortState ref="A9:G44">
       <sortCondition ref="A8:A44"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D44" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D44">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2972,7 +3059,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
@@ -2980,77 +3067,77 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="16" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" style="17" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" style="17" customWidth="1"/>
-    <col min="5" max="5" width="6.33203125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="17.109375" style="17" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="17" customWidth="1"/>
-    <col min="8" max="8" width="66.6640625" style="17" customWidth="1"/>
-    <col min="9" max="229" width="8.6640625" style="17" customWidth="1"/>
-    <col min="230" max="16384" width="11.5546875" style="17"/>
+    <col min="1" max="1" width="4.7109375" style="22" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="23" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="23" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" style="23" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" style="23" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="23" customWidth="1"/>
+    <col min="8" max="8" width="66.7109375" style="23" customWidth="1"/>
+    <col min="9" max="229" width="8.7109375" style="23" customWidth="1"/>
+    <col min="230" max="16384" width="11.5703125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C1" s="16"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C2" s="16"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C3" s="16"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C4" s="16"/>
-    </row>
-    <row r="5" spans="1:8" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C1" s="22"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C2" s="22"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C3" s="22"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C4" s="22"/>
+    </row>
+    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.2">
       <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F6" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A7" s="18"/>
-      <c r="C7" s="16"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A7" s="24"/>
+      <c r="C7" s="22"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="20" t="s">
+      <c r="H8" s="26" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="17" t="s">
         <v>59</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -3062,22 +3149,22 @@
       <c r="D9" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="31">
         <f>IF(D9="Complex", 240, IF(D9="Medium",120,60))</f>
         <v>60</v>
       </c>
-      <c r="F9" s="28" t="s">
-        <v>141</v>
+      <c r="F9" s="35" t="s">
+        <v>144</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="H9" s="23" t="s">
+      <c r="H9" s="29" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="17" t="s">
         <v>60</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -3086,23 +3173,23 @@
       <c r="C10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="31">
         <f t="shared" ref="E10:E15" si="0">IF(D10="Complex", 240, IF(D10="Medium",120,60))</f>
         <v>120</v>
       </c>
-      <c r="F10" s="28" t="s">
-        <v>141</v>
+      <c r="F10" s="35" t="s">
+        <v>144</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="H10" s="23"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+      <c r="H10" s="29"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="17" t="s">
         <v>61</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -3111,131 +3198,131 @@
       <c r="C11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="31">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
-      <c r="F11" s="23" t="s">
-        <v>139</v>
+      <c r="F11" s="29" t="s">
+        <v>144</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="H11" s="23"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+      <c r="H11" s="29"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="32" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="24">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F12" s="23" t="s">
-        <v>139</v>
+      <c r="E12" s="31">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>144</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="H12" s="26"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+      <c r="H12" s="33"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="31">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F13" s="23" t="s">
-        <v>139</v>
+      <c r="F13" s="29" t="s">
+        <v>144</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="H13" s="26"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
+      <c r="H13" s="33"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="34" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="24">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F14" s="23" t="s">
-        <v>142</v>
+      <c r="E14" s="31">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>144</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="H14" s="26"/>
-    </row>
-    <row r="15" spans="1:8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="15" t="s">
+      <c r="H14" s="33"/>
+    </row>
+    <row r="15" spans="1:8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="E15" s="24">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F15" s="23" t="s">
-        <v>142</v>
+      <c r="E15" s="31">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>144</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="H15" s="23" t="s">
+      <c r="H15" s="29" t="s">
         <v>143</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A8:F15" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A8:F14"/>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D15" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D15">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G15" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G15">
       <formula1>"Pending, Doing, Deferred, Done"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3246,7 +3333,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
@@ -3254,282 +3341,283 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" customWidth="1"/>
-    <col min="5" max="5" width="6.33203125" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="66.6640625" customWidth="1"/>
-    <col min="9" max="229" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="66.7109375" customWidth="1"/>
+    <col min="9" max="229" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
       <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="F6" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="19" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="20" t="s">
+      <c r="E8" s="27">
+        <f ca="1">IF(E8="Complex", 240, IF(D15="Medium",120,60))</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="20" t="s">
+      <c r="H8" s="26" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="15" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="42">
+      <c r="E9" s="27">
         <f>IF(D9="Complex", 240, IF(D9="Medium",120,60))</f>
         <v>60</v>
       </c>
-      <c r="F9" s="23" t="s">
-        <v>145</v>
+      <c r="F9" s="29" t="s">
+        <v>141</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="H9" s="23"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="39" t="s">
+        <v>178</v>
+      </c>
+      <c r="H9" s="29"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="42">
+      <c r="E10" s="27">
         <f t="shared" ref="E10:E16" si="0">IF(D10="Complex", 240, IF(D10="Medium",120,60))</f>
         <v>240</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="H10" s="29"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="27">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="H11" s="29"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="27">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F12" s="29" t="s">
         <v>145</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="H10" s="23"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="42">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F11" s="41" t="s">
-        <v>141</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="H11" s="23"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="42">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F12" s="40" t="s">
-        <v>144</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="H12" s="23"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="15" t="s">
+      <c r="H12" s="29"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="42">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F13" s="28" t="s">
+      <c r="E13" s="27">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F13" s="35" t="s">
         <v>145</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="H13" s="23"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="15" t="s">
+      <c r="H13" s="29"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="42">
+      <c r="E14" s="27">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F14" s="40" t="s">
-        <v>144</v>
+      <c r="F14" s="35" t="s">
+        <v>145</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="H14" s="23"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="15" t="s">
+      <c r="H14" s="29"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="42">
+      <c r="E15" s="27">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
-      <c r="F15" s="28" t="s">
+      <c r="F15" s="35" t="s">
         <v>145</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="H15" s="23"/>
-    </row>
-    <row r="16" spans="1:8" s="17" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="H15" s="29"/>
+    </row>
+    <row r="16" spans="1:8" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="32" t="s">
         <v>34</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="42">
+      <c r="E16" s="27">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F16" s="23" t="s">
-        <v>139</v>
+      <c r="F16" s="29" t="s">
+        <v>145</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="H16" s="26"/>
+        <v>178</v>
+      </c>
+      <c r="H16" s="33"/>
     </row>
   </sheetData>
-  <autoFilter ref="A8:F16" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="A8:F14"/>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G16" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G16">
       <formula1>"Pending, Doing, Deferred, Done"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D16" xr:uid="{00000000-0002-0000-0300-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D16">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3540,933 +3628,934 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="66.7109375" customWidth="1"/>
+    <col min="9" max="229" width="8.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="F5" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F6" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="8"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="28">
+        <f>IF(D9="Complex", 240, IF(D9="Medium",120,60))</f>
+        <v>120</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="29"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="28">
+        <f t="shared" ref="E10:E23" si="0">IF(D10="Complex", 240, IF(D10="Medium",120,60))</f>
+        <v>120</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="29"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="28">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="29"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="28">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="H12" s="29"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="28">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="H13" s="29"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="28">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="H14" s="29"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="28">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="H15" s="29"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="28">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="H16" s="29"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="28">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F17" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="H17" s="29"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="28">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+      <c r="F18" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="H18" s="29"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="28">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F19" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="H19" s="29"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="45" t="s">
+        <v>150</v>
+      </c>
+      <c r="C20" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="28">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F20" t="s">
+        <v>145</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="H20" s="29"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="45" t="s">
+        <v>157</v>
+      </c>
+      <c r="C21" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="28">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="F21" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="H21" s="29"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="45" t="s">
+        <v>173</v>
+      </c>
+      <c r="C22" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="28">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F22" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="H22" s="29"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="45" t="s">
+        <v>174</v>
+      </c>
+      <c r="C23" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="D23" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="28">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F23" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="H23" s="29"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A8:F15"/>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D19">
+      <formula1>"Simple,Medium,Complex"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G23">
+      <formula1>"Pending, Doing, Deferred, Done"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
+      <pane ySplit="8" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" customWidth="1"/>
-    <col min="5" max="5" width="6.33203125" customWidth="1"/>
-    <col min="6" max="6" width="18.5546875" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="66.6640625" customWidth="1"/>
-    <col min="9" max="229" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="66.7109375" customWidth="1"/>
+    <col min="9" max="229" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
       <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="F6" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="19" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="20" t="s">
+      <c r="H8" s="26" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="15" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="25" t="s">
+      <c r="B9" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="28">
         <f>IF(D9="Complex", 240, IF(D9="Medium",120,60))</f>
         <v>120</v>
       </c>
-      <c r="F9" s="40" t="s">
-        <v>144</v>
+      <c r="F9" s="29" t="s">
+        <v>139</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="23"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="22">
+      <c r="H9" s="29"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="28">
         <f t="shared" ref="E10:E23" si="0">IF(D10="Complex", 240, IF(D10="Medium",120,60))</f>
-        <v>120</v>
-      </c>
-      <c r="F10" s="23" t="s">
-        <v>142</v>
+        <v>60</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>139</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="23"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="15" t="s">
+      <c r="H10" s="29"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="22">
-        <f t="shared" si="0"/>
-        <v>240</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>142</v>
+      <c r="B11" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="28">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>145</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="23"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="15" t="s">
+      <c r="H11" s="29"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="27" t="s">
+      <c r="B12" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="28">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="29"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="28">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="29"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="28">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="29"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="22">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F12" s="23" t="s">
+      <c r="E15" s="28">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="29"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="28">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="29"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="28">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F17" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="H12" s="23"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="25" t="s">
+      <c r="G17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="29"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E18" s="28">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F13" s="23" t="s">
+      <c r="F18" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="H13" s="23"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="D14" s="25" t="s">
+      <c r="G18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" s="29"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="45" t="s">
+        <v>175</v>
+      </c>
+      <c r="C19" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="28">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F19" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" s="29"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="45" t="s">
+        <v>176</v>
+      </c>
+      <c r="C20" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="28">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F20" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" s="29"/>
+    </row>
+    <row r="21" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="C21" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" s="28">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F21" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21" s="29"/>
+    </row>
+    <row r="22" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="45" t="s">
+        <v>146</v>
+      </c>
+      <c r="C22" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E22" s="28">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F14" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="H14" s="23"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="27" t="s">
+      <c r="F22" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" s="29"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="45" t="s">
+        <v>147</v>
+      </c>
+      <c r="C23" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="D15" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" s="22">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F15" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="H15" s="23"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="25" t="s">
+      <c r="D23" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="22">
+      <c r="E23" s="28">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F16" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="H16" s="23"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17" s="22">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F17" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="H17" s="23"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="22">
-        <f t="shared" si="0"/>
-        <v>240</v>
-      </c>
-      <c r="F18" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="H18" s="23"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="22">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F19" s="40" t="s">
+      <c r="F23" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="G19" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="H19" s="23"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="B20" s="39" t="s">
-        <v>150</v>
-      </c>
-      <c r="C20" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="D20" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="E20" s="22">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F20" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="B21" s="39" t="s">
-        <v>157</v>
-      </c>
-      <c r="C21" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="D21" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="E21" s="22">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="F21" s="40" t="s">
-        <v>141</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="H21" s="23"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B22" s="39" t="s">
-        <v>173</v>
-      </c>
-      <c r="C22" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="D22" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="E22" s="22">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F22" s="40" t="s">
-        <v>141</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="H22" s="23"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="B23" s="39" t="s">
-        <v>174</v>
-      </c>
-      <c r="C23" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="D23" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="E23" s="22">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F23" s="40" t="s">
-        <v>141</v>
-      </c>
       <c r="G23" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="H23" s="23"/>
+        <v>29</v>
+      </c>
+      <c r="H23" s="29"/>
     </row>
   </sheetData>
-  <autoFilter ref="A8:F23" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
+  <autoFilter ref="A8:F15"/>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D19" xr:uid="{00000000-0002-0000-0400-000000000000}">
-      <formula1>"Simple,Medium,Complex"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G23" xr:uid="{00000000-0002-0000-0400-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G23">
       <formula1>"Pending, Doing, Deferred, Done"</formula1>
     </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <sheetPr>
-    <outlinePr summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:H23"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" customWidth="1"/>
-    <col min="5" max="5" width="6.33203125" customWidth="1"/>
-    <col min="6" max="6" width="20.33203125" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="66.6640625" customWidth="1"/>
-    <col min="9" max="229" width="8.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="F5" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="F6" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7" s="8"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="44">
-        <f>IF(D9="Complex", 240, IF(D9="Medium",120,60))</f>
-        <v>120</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" s="23"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="44">
-        <f t="shared" ref="E10:E23" si="0">IF(D10="Complex", 240, IF(D10="Medium",120,60))</f>
-        <v>60</v>
-      </c>
-      <c r="F10" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" s="23"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="44">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" s="23"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="44">
-        <f t="shared" si="0"/>
-        <v>240</v>
-      </c>
-      <c r="F12" s="40" t="s">
-        <v>144</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" s="23"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="44">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="F13" s="40" t="s">
-        <v>144</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H13" s="23"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="44">
-        <f t="shared" si="0"/>
-        <v>240</v>
-      </c>
-      <c r="F14" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H14" s="23"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" s="44">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F15" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H15" s="23"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="E16" s="44">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F16" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H16" s="23"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17" s="44">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F17" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H17" s="23"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="E18" s="44">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="F18" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H18" s="23"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="B19" s="39" t="s">
-        <v>175</v>
-      </c>
-      <c r="C19" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="44">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F19" s="40" t="s">
-        <v>142</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H19" s="23"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="B20" s="39" t="s">
-        <v>176</v>
-      </c>
-      <c r="C20" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="D20" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="E20" s="44">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F20" s="40" t="s">
-        <v>142</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H20" s="23"/>
-    </row>
-    <row r="21" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="B21" s="39" t="s">
-        <v>177</v>
-      </c>
-      <c r="C21" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="D21" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="E21" s="44">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="F21" s="46" t="s">
-        <v>145</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H21" s="23"/>
-    </row>
-    <row r="22" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A22" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B22" s="39" t="s">
-        <v>146</v>
-      </c>
-      <c r="C22" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="D22" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="E22" s="44">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="F22" s="43" t="s">
-        <v>144</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H22" s="23"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="B23" s="39" t="s">
-        <v>147</v>
-      </c>
-      <c r="C23" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="D23" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="E23" s="44">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="F23" s="40" t="s">
-        <v>144</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H23" s="23"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A8:F23" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
-  <phoneticPr fontId="10" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G23" xr:uid="{00000000-0002-0000-0500-000000000000}">
-      <formula1>"Pending, Doing, Deferred, Done"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D18" xr:uid="{00000000-0002-0000-0500-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D18">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
   </dataValidations>
